--- a/css属性利用评估.xlsx
+++ b/css属性利用评估.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="0" windowWidth="25600" windowHeight="17780" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="130">
   <si>
     <t>属性</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -73,10 +73,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>TODO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>布局 Layout</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -90,10 +86,6 @@
   </si>
   <si>
     <t>max-width/height</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TODO</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -136,10 +128,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>当前实现处理于Chrome有差异</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>边框 Border</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -256,175 +244,152 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>transition-property</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>transition-duration</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>transition-timing-function</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>transition-delay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画 Animation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>columns</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>媒体查询 Media Queries</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系选择符</t>
+  </si>
+  <si>
+    <t>选择符Selectors</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子选择符 (E&gt;F)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>相邻选择符 (E+F)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>兄弟选择符 (E~F)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E[att]</t>
+  </si>
+  <si>
+    <t>E[att="val"]</t>
+  </si>
+  <si>
+    <t>E[att~="val"]</t>
+  </si>
+  <si>
+    <t>E[att^="val"]</t>
+  </si>
+  <si>
+    <t>E[att$="val"]</t>
+  </si>
+  <si>
+    <t>E[att*="val"]</t>
+  </si>
+  <si>
+    <t>E[att|="val"]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:hover</t>
+  </si>
+  <si>
+    <t>E:active</t>
+  </si>
+  <si>
+    <t>E:focus</t>
+  </si>
+  <si>
+    <t>E:not()</t>
+  </si>
+  <si>
+    <t>E:first-child</t>
+  </si>
+  <si>
+    <t>E:last-child</t>
+  </si>
+  <si>
+    <t>E:only-child</t>
+  </si>
+  <si>
+    <t>E:nth-child(n)</t>
+  </si>
+  <si>
+    <t>E:nth-last-child(n)</t>
+  </si>
+  <si>
+    <t>E:first-of-type</t>
+  </si>
+  <si>
+    <t>E:last-of-type</t>
+  </si>
+  <si>
+    <t>E:only-of-type</t>
+  </si>
+  <si>
+    <t>E:nth-of-type(n)</t>
+  </si>
+  <si>
+    <t>E:nth-last-of-type(n)</t>
+  </si>
+  <si>
+    <t>E:empty</t>
+  </si>
+  <si>
+    <t>E:checked</t>
+  </si>
+  <si>
+    <t>E:enabled</t>
+  </si>
+  <si>
+    <t>E:disabled</t>
+  </si>
+  <si>
+    <t>E:target</t>
+  </si>
+  <si>
+    <t>E:first-letter/E::first-letter</t>
+  </si>
+  <si>
+    <t>E:first-line/E::first-line</t>
+  </si>
+  <si>
+    <t>E:before/E::before</t>
+  </si>
+  <si>
+    <t>E:after/E::after</t>
+  </si>
+  <si>
+    <t>E::selection</t>
+  </si>
+  <si>
     <t>有限使用</t>
-  </si>
-  <si>
-    <t>有限使用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>transition-property</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>不支持all</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>不支持缩写多个属性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>transition-duration</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>transition-timing-function</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>transition-delay</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>动画 Animation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>columns</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>animation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>媒体查询 Media Queries</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系选择符</t>
-  </si>
-  <si>
-    <t>选择符Selectors</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>子选择符 (E&gt;F)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>相邻选择符 (E+F)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>兄弟选择符 (E~F)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(仅IE6原生不支持，有性能风险）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>E[att]</t>
-  </si>
-  <si>
-    <t>E[att="val"]</t>
-  </si>
-  <si>
-    <t>E[att~="val"]</t>
-  </si>
-  <si>
-    <t>E[att^="val"]</t>
-  </si>
-  <si>
-    <t>E[att$="val"]</t>
-  </si>
-  <si>
-    <t>E[att*="val"]</t>
-  </si>
-  <si>
-    <t>E[att|="val"]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TODO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:hover</t>
-  </si>
-  <si>
-    <t>E:active</t>
-  </si>
-  <si>
-    <t>E:focus</t>
-  </si>
-  <si>
-    <t>E:not()</t>
-  </si>
-  <si>
-    <t>E:first-child</t>
-  </si>
-  <si>
-    <t>E:last-child</t>
-  </si>
-  <si>
-    <t>E:only-child</t>
-  </si>
-  <si>
-    <t>E:nth-child(n)</t>
-  </si>
-  <si>
-    <t>E:nth-last-child(n)</t>
-  </si>
-  <si>
-    <t>E:first-of-type</t>
-  </si>
-  <si>
-    <t>E:last-of-type</t>
-  </si>
-  <si>
-    <t>E:only-of-type</t>
-  </si>
-  <si>
-    <t>E:nth-of-type(n)</t>
-  </si>
-  <si>
-    <t>E:nth-last-of-type(n)</t>
-  </si>
-  <si>
-    <t>E:empty</t>
-  </si>
-  <si>
-    <t>E:checked</t>
-  </si>
-  <si>
-    <t>E:enabled</t>
-  </si>
-  <si>
-    <t>E:disabled</t>
-  </si>
-  <si>
-    <t>E:target</t>
-  </si>
-  <si>
-    <t>E:first-letter/E::first-letter</t>
-  </si>
-  <si>
-    <t>E:first-line/E::first-line</t>
-  </si>
-  <si>
-    <t>E:before/E::before</t>
-  </si>
-  <si>
-    <t>E:after/E::after</t>
-  </si>
-  <si>
-    <t>E::selection</t>
-  </si>
-  <si>
-    <t>有限使用</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -469,10 +434,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>改进建议</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>增加支持</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -486,10 +447,6 @@
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>优化触发？</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -546,10 +503,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>不建议</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>优化触发：周期4X</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -559,6 +512,33 @@
   </si>
   <si>
     <t>优化触发：4X</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IE下只能用于图片，其他差异化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【推荐】</t>
+  </si>
+  <si>
+    <t>【推荐】</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有限使用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加大轮询周期，增加scroll、resize事件侦听，响应会慢</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：跟opacity合用有问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs改进建议及记录</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -680,7 +660,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -722,12 +702,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0504D"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -738,7 +712,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="75">
+  <cellStyleXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -814,20 +788,49 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -837,31 +840,43 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="75">
+  <cellStyles count="113">
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
@@ -885,6 +900,25 @@
     <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
@@ -935,62 +969,29 @@
     <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF008000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1424,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1439,14 +1440,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="97" customHeight="1">
-      <c r="A1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="A1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
@@ -1462,13 +1463,13 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1480,10 +1481,10 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E5" t="s">
@@ -1493,681 +1494,656 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="E7" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="93" customHeight="1">
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="93" customHeight="1">
-      <c r="C8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="4"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="20"/>
       <c r="H8" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="C10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="E10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="C10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>118</v>
-      </c>
-      <c r="G10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="C11" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>116</v>
+        <v>20</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="B12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="E12" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="24" t="s">
-        <v>132</v>
+      <c r="F12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="24" t="s">
-        <v>132</v>
+      <c r="G14" s="15" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="20" t="s">
-        <v>114</v>
+      <c r="G15" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="C16" s="7" t="s">
-        <v>36</v>
+      <c r="C16" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>114</v>
+        <v>20</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="C17" s="7" t="s">
-        <v>37</v>
+      <c r="C17" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>115</v>
+        <v>125</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>114</v>
+        <v>36</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="G19" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
         <v>41</v>
       </c>
-      <c r="E19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="B20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>114</v>
+      <c r="G20" s="16" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="F21" t="s">
-        <v>128</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>130</v>
+        <v>117</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="C22" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>114</v>
+      <c r="C22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16">
+      <c r="C24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="G24" s="21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16">
+      <c r="C25" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="E25" s="24"/>
+      <c r="G25" s="21"/>
+    </row>
+    <row r="26" spans="1:7" ht="16">
+      <c r="C26" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E23" t="s">
-        <v>131</v>
-      </c>
-      <c r="F23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16">
-      <c r="C24" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="E26" s="24"/>
+      <c r="G26" s="21"/>
+    </row>
+    <row r="27" spans="1:7" ht="16">
+      <c r="C27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="24"/>
+      <c r="G27" s="21"/>
+    </row>
+    <row r="28" spans="1:7" ht="16">
+      <c r="B28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F24" t="s">
+      <c r="C28" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="16">
-      <c r="C25" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" s="27"/>
-    </row>
-    <row r="26" spans="1:7" ht="16">
-      <c r="C26" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" s="27"/>
-    </row>
-    <row r="27" spans="1:7" ht="16">
-      <c r="C27" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" t="s">
-        <v>129</v>
-      </c>
-      <c r="G27" s="27"/>
-    </row>
-    <row r="28" spans="1:7" ht="16">
-      <c r="B28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>114</v>
+      <c r="E28" s="24"/>
+      <c r="G28" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="B29" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>114</v>
+        <v>41</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="16">
       <c r="A30" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="B30" s="6"/>
     </row>
     <row r="31" spans="1:7" ht="16">
-      <c r="B31" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>110</v>
+      <c r="B31" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="E31" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="20" t="s">
-        <v>114</v>
+      <c r="G31" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="16">
       <c r="B32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32" s="27" t="s">
-        <v>134</v>
+        <v>55</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="20"/>
+      <c r="G32" s="21" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="16">
-      <c r="C33" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="27"/>
+      <c r="C33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="24"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="21"/>
     </row>
     <row r="34" spans="2:7" ht="16">
-      <c r="C34" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="27"/>
+      <c r="C34" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="24"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="21"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>120</v>
+        <v>92</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="C36" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="G36" s="19"/>
+      <c r="C36" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="24"/>
+      <c r="G36" s="22"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="C37" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="G37" s="19"/>
+      <c r="C37" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="24"/>
+      <c r="G37" s="22"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="C38" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="G38" s="19"/>
+      <c r="C38" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="24"/>
+      <c r="G38" s="22"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="C39" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="G39" s="19"/>
+      <c r="C39" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="24"/>
+      <c r="G39" s="22"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="C40" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="G40" s="19"/>
+      <c r="C40" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="24"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="C41" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="G41" s="19"/>
+      <c r="C41" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="24"/>
+      <c r="G41" s="22"/>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C42" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="C43" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="24"/>
+      <c r="G43" s="23"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="C44" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="24"/>
+      <c r="G44" s="23"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="C45" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="C46" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46" s="28"/>
+      <c r="G46" s="26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="C47" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="28"/>
+      <c r="G47" s="26"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="C48" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="28"/>
+      <c r="G48" s="26"/>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="C49" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49" s="28"/>
+      <c r="G49" s="26"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="C50" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E50" s="28"/>
+      <c r="G50" s="26"/>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="C51" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E51" s="28"/>
+      <c r="G51" s="26"/>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="C52" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" s="28"/>
+      <c r="G52" s="26"/>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="C53" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E53" s="28"/>
+      <c r="G53" s="26"/>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="C54" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" s="28"/>
+      <c r="G54" s="26"/>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="C55" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" s="28"/>
+      <c r="G55" s="26"/>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="C56" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E56" s="28"/>
+      <c r="G56" s="26"/>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="8"/>
+      <c r="C57" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="G57" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="8"/>
+      <c r="C58" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E58" s="24"/>
+      <c r="G58" s="27"/>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="8"/>
+      <c r="C59" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59" s="24"/>
+      <c r="G59" s="27"/>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="8"/>
+      <c r="C60" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E60" t="s">
         <v>3</v>
       </c>
-      <c r="G42" s="23" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7">
-      <c r="C43" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="23"/>
-    </row>
-    <row r="44" spans="2:7">
-      <c r="C44" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="23"/>
-    </row>
-    <row r="45" spans="2:7">
-      <c r="C45" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7">
-      <c r="C46" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7">
-      <c r="C47" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="G47" s="18"/>
-    </row>
-    <row r="48" spans="2:7">
-      <c r="C48" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="G48" s="18"/>
-    </row>
-    <row r="49" spans="2:7">
-      <c r="C49" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="G49" s="18"/>
-    </row>
-    <row r="50" spans="2:7">
-      <c r="C50" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="G50" s="18"/>
-    </row>
-    <row r="51" spans="2:7">
-      <c r="C51" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="G51" s="18"/>
-    </row>
-    <row r="52" spans="2:7">
-      <c r="C52" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="G52" s="18"/>
-    </row>
-    <row r="53" spans="2:7">
-      <c r="C53" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="G53" s="18"/>
-    </row>
-    <row r="54" spans="2:7">
-      <c r="C54" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="G54" s="18"/>
-    </row>
-    <row r="55" spans="2:7">
-      <c r="C55" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="G55" s="18"/>
-    </row>
-    <row r="56" spans="2:7">
-      <c r="C56" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" s="18"/>
-    </row>
-    <row r="57" spans="2:7">
-      <c r="B57" s="11"/>
-      <c r="C57" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="G57" s="22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7">
-      <c r="B58" s="11"/>
-      <c r="C58" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="G58" s="22"/>
-    </row>
-    <row r="59" spans="2:7">
-      <c r="B59" s="11"/>
-      <c r="C59" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="G59" s="22"/>
-    </row>
-    <row r="60" spans="2:7">
-      <c r="B60" s="11"/>
-      <c r="C60" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="G60" s="22"/>
+      <c r="G60" s="27"/>
     </row>
     <row r="61" spans="2:7">
       <c r="B61" t="s">
-        <v>103</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G61" s="15"/>
+        <v>94</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="G61" s="13"/>
     </row>
     <row r="62" spans="2:7">
-      <c r="C62" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="G62" s="15"/>
+      <c r="C62" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E62" s="24"/>
+      <c r="G62" s="13"/>
     </row>
     <row r="63" spans="2:7">
-      <c r="C63" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>44</v>
+      <c r="C63" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="G63" s="16"/>
     </row>
     <row r="64" spans="2:7">
-      <c r="C64" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E64" s="2"/>
+      <c r="C64" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E64" s="24"/>
       <c r="G64" s="16"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="C65" s="7" t="s">
-        <v>99</v>
+      <c r="C65" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="E65" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B66" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E66" t="s">
         <v>3</v>
       </c>
-      <c r="G66" s="17"/>
+      <c r="G66" s="12"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B67" t="s">
-        <v>107</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>108</v>
+        <v>98</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="E67" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="20">
     <mergeCell ref="G46:G56"/>
     <mergeCell ref="G57:G60"/>
     <mergeCell ref="G24:G27"/>
     <mergeCell ref="E61:E62"/>
     <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="E45:E56"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="G32:G34"/>
     <mergeCell ref="G35:G41"/>
@@ -2175,26 +2151,46 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="F32:F34"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E32:E34"/>
     <mergeCell ref="E35:E41"/>
-    <mergeCell ref="E56:E60"/>
-    <mergeCell ref="E46:E55"/>
+    <mergeCell ref="E42:E44"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="F21 E1:E1048576">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="有限使用">
+  <conditionalFormatting sqref="F21 E42 E1:E7 F12 E29:E32 E9:E18 E20:E23 E45 E57 E60:E1048576">
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="有限使用">
       <formula>NOT(ISERROR(SEARCH("有限使用",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="差异化">
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="差异化">
       <formula>NOT(ISERROR(SEARCH("差异化",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="TODO">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="TODO">
       <formula>NOT(ISERROR(SEARCH("TODO",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="不建议">
+    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="不建议">
       <formula>NOT(ISERROR(SEARCH("不建议",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="推荐">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="推荐">
       <formula>NOT(ISERROR(SEARCH("推荐",E1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="有限使用">
+      <formula>NOT(ISERROR(SEARCH("有限使用",E35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="差异化">
+      <formula>NOT(ISERROR(SEARCH("差异化",E35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="TODO">
+      <formula>NOT(ISERROR(SEARCH("TODO",E35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="不建议">
+      <formula>NOT(ISERROR(SEARCH("不建议",E35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="推荐">
+      <formula>NOT(ISERROR(SEARCH("推荐",E35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/css属性利用评估.xlsx
+++ b/css属性利用评估.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="131">
   <si>
     <t>属性</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -540,6 +540,9 @@
   <si>
     <t>cs改进建议及记录</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不建议</t>
   </si>
 </sst>
 </file>
@@ -712,7 +715,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="113">
+  <cellStyleXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -787,6 +790,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -848,10 +853,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -860,23 +877,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="113">
+  <cellStyles count="115">
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
@@ -919,6 +924,7 @@
     <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
@@ -988,6 +994,7 @@
     <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1426,7 +1433,7 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1440,14 +1447,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="97" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
@@ -1521,13 +1528,13 @@
       <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="25" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1535,9 +1542,9 @@
       <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="20"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="25"/>
       <c r="H8" t="s">
         <v>114</v>
       </c>
@@ -1675,7 +1682,7 @@
       <c r="C18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="23" t="s">
         <v>20</v>
       </c>
       <c r="G18" s="13" t="s">
@@ -1689,7 +1696,7 @@
       <c r="C19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="24"/>
+      <c r="E19" s="23"/>
       <c r="G19" s="13" t="s">
         <v>104</v>
       </c>
@@ -1743,7 +1750,7 @@
       <c r="C23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="23" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="14" t="s">
@@ -1754,8 +1761,8 @@
       <c r="C24" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="24"/>
-      <c r="G24" s="21" t="s">
+      <c r="E24" s="23"/>
+      <c r="G24" s="22" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1763,22 +1770,22 @@
       <c r="C25" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="G25" s="21"/>
+      <c r="E25" s="23"/>
+      <c r="G25" s="22"/>
     </row>
     <row r="26" spans="1:7" ht="16">
       <c r="C26" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="G26" s="21"/>
+      <c r="E26" s="23"/>
+      <c r="G26" s="22"/>
     </row>
     <row r="27" spans="1:7" ht="16">
       <c r="C27" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="G27" s="21"/>
+      <c r="E27" s="23"/>
+      <c r="G27" s="22"/>
     </row>
     <row r="28" spans="1:7" ht="16">
       <c r="B28" s="2" t="s">
@@ -1787,7 +1794,7 @@
       <c r="C28" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="24"/>
+      <c r="E28" s="23"/>
       <c r="G28" s="13" t="s">
         <v>104</v>
       </c>
@@ -1830,11 +1837,11 @@
       <c r="C32" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E32" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="21" t="s">
+      <c r="F32" s="25"/>
+      <c r="G32" s="22" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1842,17 +1849,17 @@
       <c r="C33" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="21"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="22"/>
     </row>
     <row r="34" spans="2:7" ht="16">
       <c r="C34" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="21"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="22"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" t="s">
@@ -1861,10 +1868,10 @@
       <c r="C35" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E35" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G35" s="22" t="s">
+      <c r="G35" s="26" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1872,43 +1879,43 @@
       <c r="C36" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E36" s="24"/>
-      <c r="G36" s="22"/>
+      <c r="E36" s="23"/>
+      <c r="G36" s="26"/>
     </row>
     <row r="37" spans="2:7">
       <c r="C37" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E37" s="24"/>
-      <c r="G37" s="22"/>
+      <c r="E37" s="23"/>
+      <c r="G37" s="26"/>
     </row>
     <row r="38" spans="2:7">
       <c r="C38" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E38" s="24"/>
-      <c r="G38" s="22"/>
+      <c r="E38" s="23"/>
+      <c r="G38" s="26"/>
     </row>
     <row r="39" spans="2:7">
       <c r="C39" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E39" s="24"/>
-      <c r="G39" s="22"/>
+      <c r="E39" s="23"/>
+      <c r="G39" s="26"/>
     </row>
     <row r="40" spans="2:7">
       <c r="C40" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E40" s="24"/>
-      <c r="G40" s="22"/>
+      <c r="E40" s="23"/>
+      <c r="G40" s="26"/>
     </row>
     <row r="41" spans="2:7">
       <c r="C41" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="24"/>
-      <c r="G41" s="22"/>
+      <c r="E41" s="23"/>
+      <c r="G41" s="26"/>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" t="s">
@@ -1917,10 +1924,10 @@
       <c r="C42" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E42" s="24" t="s">
+      <c r="E42" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G42" s="23" t="s">
+      <c r="G42" s="27" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1928,21 +1935,21 @@
       <c r="C43" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="G43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="G43" s="27"/>
     </row>
     <row r="44" spans="2:7">
       <c r="C44" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="G44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="G44" s="27"/>
     </row>
     <row r="45" spans="2:7">
       <c r="C45" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E45" s="28" t="s">
+      <c r="E45" s="24" t="s">
         <v>126</v>
       </c>
       <c r="G45" s="11" t="s">
@@ -1953,8 +1960,8 @@
       <c r="C46" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E46" s="28"/>
-      <c r="G46" s="26" t="s">
+      <c r="E46" s="24"/>
+      <c r="G46" s="20" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1962,81 +1969,81 @@
       <c r="C47" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E47" s="28"/>
-      <c r="G47" s="26"/>
+      <c r="E47" s="24"/>
+      <c r="G47" s="20"/>
     </row>
     <row r="48" spans="2:7">
       <c r="C48" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="E48" s="28"/>
-      <c r="G48" s="26"/>
+      <c r="E48" s="24"/>
+      <c r="G48" s="20"/>
     </row>
     <row r="49" spans="2:7">
       <c r="C49" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E49" s="28"/>
-      <c r="G49" s="26"/>
+      <c r="E49" s="24"/>
+      <c r="G49" s="20"/>
     </row>
     <row r="50" spans="2:7">
       <c r="C50" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E50" s="28"/>
-      <c r="G50" s="26"/>
+      <c r="E50" s="24"/>
+      <c r="G50" s="20"/>
     </row>
     <row r="51" spans="2:7">
       <c r="C51" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E51" s="28"/>
-      <c r="G51" s="26"/>
+      <c r="E51" s="24"/>
+      <c r="G51" s="20"/>
     </row>
     <row r="52" spans="2:7">
       <c r="C52" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E52" s="28"/>
-      <c r="G52" s="26"/>
+      <c r="E52" s="24"/>
+      <c r="G52" s="20"/>
     </row>
     <row r="53" spans="2:7">
       <c r="C53" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E53" s="28"/>
-      <c r="G53" s="26"/>
+      <c r="E53" s="24"/>
+      <c r="G53" s="20"/>
     </row>
     <row r="54" spans="2:7">
       <c r="C54" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E54" s="28"/>
-      <c r="G54" s="26"/>
+      <c r="E54" s="24"/>
+      <c r="G54" s="20"/>
     </row>
     <row r="55" spans="2:7">
       <c r="C55" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E55" s="28"/>
-      <c r="G55" s="26"/>
+      <c r="E55" s="24"/>
+      <c r="G55" s="20"/>
     </row>
     <row r="56" spans="2:7">
       <c r="C56" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E56" s="28"/>
-      <c r="G56" s="26"/>
+      <c r="E56" s="24"/>
+      <c r="G56" s="20"/>
     </row>
     <row r="57" spans="2:7">
       <c r="B57" s="8"/>
       <c r="C57" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E57" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="G57" s="27" t="s">
+      <c r="E57" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="G57" s="21" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2045,16 +2052,16 @@
       <c r="C58" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E58" s="24"/>
-      <c r="G58" s="27"/>
+      <c r="E58" s="23"/>
+      <c r="G58" s="21"/>
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="8"/>
       <c r="C59" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E59" s="24"/>
-      <c r="G59" s="27"/>
+      <c r="E59" s="23"/>
+      <c r="G59" s="21"/>
     </row>
     <row r="60" spans="2:7">
       <c r="B60" s="8"/>
@@ -2064,7 +2071,7 @@
       <c r="E60" t="s">
         <v>3</v>
       </c>
-      <c r="G60" s="27"/>
+      <c r="G60" s="21"/>
     </row>
     <row r="61" spans="2:7">
       <c r="B61" t="s">
@@ -2073,7 +2080,7 @@
       <c r="C61" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E61" s="24" t="s">
+      <c r="E61" s="23" t="s">
         <v>124</v>
       </c>
       <c r="G61" s="13"/>
@@ -2082,14 +2089,14 @@
       <c r="C62" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E62" s="24"/>
+      <c r="E62" s="23"/>
       <c r="G62" s="13"/>
     </row>
     <row r="63" spans="2:7">
       <c r="C63" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E63" s="24" t="s">
+      <c r="E63" s="23" t="s">
         <v>41</v>
       </c>
       <c r="G63" s="16"/>
@@ -2098,7 +2105,7 @@
       <c r="C64" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E64" s="24"/>
+      <c r="E64" s="23"/>
       <c r="G64" s="16"/>
     </row>
     <row r="65" spans="1:7">
@@ -2137,13 +2144,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G46:G56"/>
-    <mergeCell ref="G57:G60"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="E45:E56"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="G32:G34"/>
     <mergeCell ref="G35:G41"/>
@@ -2157,6 +2157,13 @@
     <mergeCell ref="E32:E34"/>
     <mergeCell ref="E35:E41"/>
     <mergeCell ref="E42:E44"/>
+    <mergeCell ref="G46:G56"/>
+    <mergeCell ref="G57:G60"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="E45:E56"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="F21 E42 E1:E7 F12 E29:E32 E9:E18 E20:E23 E45 E57 E60:E1048576">
